--- a/biology/Médecine/Shoma_Morita/Shoma_Morita.xlsx
+++ b/biology/Médecine/Shoma_Morita/Shoma_Morita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Morita Masatake, appelé aussi Morita Shoma ((森田 正馬), né en 1874 et mort en 1938[1], est un psychologue japonais contemporain de Sigmund Freud à l'origine de la thérapie de Morita, une branche de la psychologie clinique fortement influencée par le bouddhisme zen[2]. À la tête du service de psychiatrie d'un hôpital de Tokyo[réf. nécessaire], Morita Shoma commence à développer sa théorie en travaillant avec des patients souffrant de shinkeishitsu ou troubles anxieux sur base hypocondriaque.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morita Masatake, appelé aussi Morita Shoma ((森田 正馬), né en 1874 et mort en 1938, est un psychologue japonais contemporain de Sigmund Freud à l'origine de la thérapie de Morita, une branche de la psychologie clinique fortement influencée par le bouddhisme zen. À la tête du service de psychiatrie d'un hôpital de Tokyo[réf. nécessaire], Morita Shoma commence à développer sa théorie en travaillant avec des patients souffrant de shinkeishitsu ou troubles anxieux sur base hypocondriaque.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Théorie et méthodes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon Morita Shoma, la manière dont une personne ressent les choses est importante car c'est un indicateur du moment présent. La sensation est incontrôlable : nous ne pouvons créer les sentiments, ils nous submergent. Étant donné que les sentiments n'entraînent pas notre comportement, notre esprit ne peut abriter des sentiments désagréables tout en élaborant une action constructive.
 La méthode de Morita pourrait être résumée par 3 règles : accepte tes sentiments, connais ton(tes) objectif(s) et fais ce qui est à faire.
@@ -545,7 +559,9 @@
           <t>Influence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écrivain américain David K. Reynolds (en) a synthétisé une partie de la thérapie de Morita parallèlement à la pratique de la Naikan dans le cadre de la méthode de Constructive living, une méthode d'éducation pour occidentaux anglophones. Depuis, cette méthode est devenue très célèbre au Japon.[réf. nécessaire]
 </t>
